--- a/testcases/case39.xlsx
+++ b/testcases/case39.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="463">
   <si>
     <t>name</t>
   </si>
@@ -1532,8 +1532,8 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5189,18 +5189,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.53441295546559"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5214,43 +5214,46 @@
         <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>354</v>
       </c>
@@ -5263,44 +5266,47 @@
       <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>105</v>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>359</v>
       </c>
@@ -5313,44 +5319,47 @@
       <c r="D3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>105</v>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>236</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>360</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>360</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L3" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>364</v>
       </c>
@@ -5363,44 +5372,47 @@
       <c r="D4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>105</v>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L4" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>366</v>
       </c>
@@ -5413,44 +5425,47 @@
       <c r="D5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>367</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>144</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>144</v>
       </c>
       <c r="I5" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L5" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="O5" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>371</v>
       </c>
@@ -5463,44 +5478,47 @@
       <c r="D6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>367</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>144</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>144</v>
       </c>
       <c r="I6" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L6" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="N6" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="O6" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="O6" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>372</v>
       </c>
@@ -5513,44 +5531,47 @@
       <c r="D7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L7" s="0" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="M7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="O7" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="O7" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="0" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>376</v>
       </c>
@@ -5563,44 +5584,47 @@
       <c r="D8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L8" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="N8" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="O8" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="O8" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="0" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>378</v>
       </c>
@@ -5613,44 +5637,47 @@
       <c r="D9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L9" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="N9" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="O9" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="O9" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="0" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>383</v>
       </c>
@@ -5663,44 +5690,47 @@
       <c r="D10" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>105</v>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L10" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="N10" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="O10" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="O10" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="0" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>385</v>
       </c>
@@ -5713,44 +5743,47 @@
       <c r="D11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="K11" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L11" s="0" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="M11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="O11" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="O11" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="0" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>390</v>
       </c>
@@ -5763,44 +5796,47 @@
       <c r="D12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="I12" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="J12" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="K12" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="K12" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L12" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="N12" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="O12" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="O12" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="0" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>392</v>
       </c>
@@ -5813,40 +5849,43 @@
       <c r="D13" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="J13" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="K13" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="K13" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L13" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="N13" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="O13" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="O13" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="0" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6045,18 +6084,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.53441295546559"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>130</v>
       </c>
@@ -6067,64 +6106,67 @@
         <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>100</v>
       </c>
@@ -6134,65 +6176,68 @@
       <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="G2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L2" s="0" t="s">
         <v>105</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="Q2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="R2" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="S2" s="0" t="s">
         <v>105</v>
       </c>
       <c r="T2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="U2" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="W2" s="0" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>103</v>
       </c>
@@ -6202,65 +6247,68 @@
       <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="G3" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>105</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="Q3" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="R3" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="S3" s="0" t="s">
         <v>105</v>
       </c>
       <c r="T3" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="U3" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="W3" s="0" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>106</v>
       </c>
@@ -6270,65 +6318,68 @@
       <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="G4" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L4" s="0" t="s">
         <v>105</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="P4" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="Q4" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="R4" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="S4" s="0" t="s">
         <v>105</v>
       </c>
       <c r="T4" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="U4" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="V4" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="W4" s="0" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>109</v>
       </c>
@@ -6338,65 +6389,68 @@
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="G5" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="I5" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L5" s="0" t="s">
         <v>105</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="P5" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="Q5" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="R5" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="S5" s="0" t="s">
         <v>105</v>
       </c>
       <c r="T5" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="U5" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="V5" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="W5" s="0" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>112</v>
       </c>
@@ -6406,65 +6460,68 @@
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="G6" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="I6" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L6" s="0" t="s">
         <v>105</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="Q6" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="R6" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="S6" s="0" t="s">
         <v>105</v>
       </c>
       <c r="T6" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="U6" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="V6" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="W6" s="0" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>115</v>
       </c>
@@ -6474,65 +6531,68 @@
       <c r="C7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="G7" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L7" s="0" t="s">
         <v>105</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="P7" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="Q7" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="R7" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="S7" s="0" t="s">
         <v>105</v>
       </c>
       <c r="T7" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="U7" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="V7" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="V7" s="0" t="s">
+      <c r="W7" s="0" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>118</v>
       </c>
@@ -6542,65 +6602,68 @@
       <c r="C8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="G8" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="I8" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L8" s="0" t="s">
         <v>105</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="P8" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="Q8" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="R8" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="R8" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="S8" s="0" t="s">
         <v>105</v>
       </c>
       <c r="T8" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="U8" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="V8" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="V8" s="0" t="s">
+      <c r="W8" s="0" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>121</v>
       </c>
@@ -6610,65 +6673,68 @@
       <c r="C9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="G9" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="I9" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L9" s="0" t="s">
         <v>105</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="P9" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="Q9" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="R9" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="R9" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="S9" s="0" t="s">
         <v>105</v>
       </c>
       <c r="T9" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="U9" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="U9" s="0" t="s">
+      <c r="V9" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="W9" s="0" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>124</v>
       </c>
@@ -6678,65 +6744,68 @@
       <c r="C10" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="G10" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L10" s="0" t="s">
         <v>105</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="P10" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="Q10" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="R10" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="R10" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="S10" s="0" t="s">
         <v>105</v>
       </c>
       <c r="T10" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="U10" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="U10" s="0" t="s">
+      <c r="V10" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="V10" s="0" t="s">
+      <c r="W10" s="0" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>127</v>
       </c>
@@ -6746,61 +6815,64 @@
       <c r="C11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="G11" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="K11" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="L11" s="0" t="s">
         <v>105</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="P11" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="Q11" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="R11" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="R11" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="S11" s="0" t="s">
         <v>105</v>
       </c>
       <c r="T11" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="U11" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="V11" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="V11" s="0" t="s">
+      <c r="W11" s="0" t="s">
         <v>422</v>
       </c>
     </row>

--- a/testcases/case39.xlsx
+++ b/testcases/case39.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="463">
   <si>
     <t>name</t>
   </si>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="1" sqref="H2:H13 A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2840,7 +2840,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2866,7 +2866,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2903,7 +2903,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3730,7 +3730,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5189,10 +5189,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5223,33 +5223,36 @@
         <v>218</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5275,34 +5278,37 @@
       <c r="G2" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="M2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5328,34 +5334,37 @@
       <c r="G3" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>360</v>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>360</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="M3" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5381,34 +5390,37 @@
       <c r="G4" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="M4" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5434,34 +5446,37 @@
       <c r="G5" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>144</v>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>144</v>
       </c>
       <c r="J5" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="L5" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="M5" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="P5" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5487,34 +5502,37 @@
       <c r="G6" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>144</v>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>144</v>
       </c>
       <c r="J6" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="L6" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="M6" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="O6" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="P6" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5540,34 +5558,37 @@
       <c r="G7" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="L7" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="L7" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="M7" s="0" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="N7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="P7" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="P7" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="0" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5593,34 +5614,37 @@
       <c r="G8" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="L8" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="L8" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="M8" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="O8" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="P8" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="P8" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="0" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5646,34 +5670,37 @@
       <c r="G9" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="L9" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="L9" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="M9" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="N9" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="O9" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="P9" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="P9" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="0" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5699,34 +5726,37 @@
       <c r="G10" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="L10" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="L10" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="M10" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="N10" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="O10" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="P10" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="P10" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="0" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5752,34 +5782,37 @@
       <c r="G11" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="L11" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="L11" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="M11" s="0" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="N11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="P11" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="P11" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="0" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5805,34 +5838,37 @@
       <c r="G12" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="J12" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="K12" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="L12" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="L12" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="M12" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="O12" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="P12" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="P12" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="0" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5858,34 +5894,37 @@
       <c r="G13" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="J13" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="K13" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="L13" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="L13" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="M13" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="O13" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="O13" s="0" t="s">
+      <c r="P13" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="P13" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="0" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5908,7 +5947,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5973,7 +6012,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6017,7 +6056,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6052,7 +6091,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6086,8 +6125,8 @@
   </sheetPr>
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="H2:H13 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
